--- a/docs/M293-Selbstbewertung-Nguyen-Tan Dat Tim.xlsx
+++ b/docs/M293-Selbstbewertung-Nguyen-Tan Dat Tim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanda\Documents\TBZ\modul_293\MeinWebshop\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9D068D-266C-4A71-A139-14DE505CC33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0B431C-4C75-41FB-BA69-6457CFBB63F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{331714C9-1444-C841-92DD-9A356C4C8613}"/>
   </bookViews>
@@ -738,7 +738,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
